--- a/IPLASMACOMPARE.xlsx
+++ b/IPLASMACOMPARE.xlsx
@@ -973,16 +973,10 @@
     <t>[getName ShotgunSurgery]</t>
   </si>
   <si>
-    <t>God Class [parseCategory FeatureEnvy ]</t>
-  </si>
-  <si>
     <t>isGreaterOrEqual ShotgunSurgery </t>
   </si>
   <si>
     <t>[ BrainMethod ==&gt; method name : parse(Line Num : 124 ) ] --  BrainClass  [finalizeConverter BrainMethod ]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">God Class  [parseLevel FeatureEnvy] </t>
   </si>
   <si>
     <r>
@@ -1037,9 +1031,6 @@
     </r>
   </si>
   <si>
-    <t>IPLASMA aracının tespit edebildiği, ancak bizim eklentimizin tespit edemediği 10 adet kötü     [6 Shotgun Surgery- 2 God Class - 2 Feature Envy ]</t>
-  </si>
-  <si>
     <t>Bizim eklentimizin kötü koku olarak tespit ettiği, ancak IPLASMA aracının tespit edemediği 32 adet kötü koku      [3 adet feature envy - 6 adet shotgun surgery- 15 refused parent bequest-2 dispersed coupling-3 Data Class-1Brain Class-1 Brain Method, 1 Intensive Coupling]</t>
   </si>
   <si>
@@ -1050,6 +1041,15 @@
   </si>
   <si>
     <t>IPLASMA</t>
+  </si>
+  <si>
+    <t>God Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">God Class </t>
+  </si>
+  <si>
+    <t>IPLASMA aracının tespit edebildiği, ancak bizim eklentimizin tespit edemediği 8 adet kötü     [6 Shotgun Surgery- 2 God Class ]</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="D216" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D236" sqref="D236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>85</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E160" s="1"/>
     </row>
@@ -3801,7 +3801,7 @@
         <v>127</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4365,7 +4365,7 @@
         <v>223</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -4567,10 +4567,10 @@
         <v>226</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -4603,17 +4603,17 @@
     </row>
     <row r="229" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D229" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="230" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D230" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="231" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D231" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
